--- a/Трен.xlsx
+++ b/Трен.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Пн</t>
   </si>
@@ -84,9 +84,6 @@
     <t>интервалы - 3x4 мин</t>
   </si>
   <si>
-    <t>интервалы 4x250, восст 30 с</t>
-  </si>
-  <si>
     <t>восстановление 3 км</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Итого:</t>
   </si>
   <si>
-    <t>восстановление 5 км</t>
-  </si>
-  <si>
     <t>1,5 часа</t>
   </si>
   <si>
@@ -145,6 +139,27 @@
   </si>
   <si>
     <t>интервалы 4 x 2 мин, восст. 2-3 мин</t>
+  </si>
+  <si>
+    <t>восстановление 1 км</t>
+  </si>
+  <si>
+    <t>интервалы 5 x 30 c (пологий), восст 20 с</t>
+  </si>
+  <si>
+    <t>интервалы 5 x 40 c (равнина), восст 20 с</t>
+  </si>
+  <si>
+    <t>интервалы 4 x 30 (подъем), восст 20 с</t>
+  </si>
+  <si>
+    <t>интервалы 5 x 30 (крут подъем), восст 20 с</t>
+  </si>
+  <si>
+    <t>кросс 1 км</t>
+  </si>
+  <si>
+    <t>разминка 4 км</t>
   </si>
 </sst>
 </file>
@@ -508,20 +523,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -576,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -585,10 +600,10 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -596,22 +611,22 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -619,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -628,301 +643,317 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>26</v>
+      </c>
+      <c r="E17">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F22" t="s">
         <v>8</v>
       </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>24</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>27</v>
-      </c>
-      <c r="F15">
-        <v>28</v>
-      </c>
-      <c r="G15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>31</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
         <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>31</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-      <c r="G24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>6</v>
       </c>
-      <c r="B32">
+      <c r="B34">
         <v>7</v>
       </c>
-      <c r="C32">
+      <c r="C34">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>10</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <v>11</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>13</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>14</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>15</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D43" s="3">
         <v>16</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E43" s="2">
         <v>17</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F43" s="2">
         <v>18</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G43" s="2">
         <v>19</v>
       </c>
     </row>
